--- a/Config/Datas/__enums__.xlsx
+++ b/Config/Datas/__enums__.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="120">
   <si>
     <t>##var</t>
   </si>
@@ -354,6 +354,39 @@
   </si>
   <si>
     <t>魔法妨害</t>
+  </si>
+  <si>
+    <t>SELF</t>
+  </si>
+  <si>
+    <t>自身</t>
+  </si>
+  <si>
+    <t>AT</t>
+  </si>
+  <si>
+    <t>己方全体</t>
+  </si>
+  <si>
+    <t>ST</t>
+  </si>
+  <si>
+    <t>己方单体</t>
+  </si>
+  <si>
+    <t>AE</t>
+  </si>
+  <si>
+    <t>敌方全体</t>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
+  <si>
+    <t>敌方单体</t>
+  </si>
+  <si>
+    <t>card.TargetType</t>
   </si>
 </sst>
 </file>
@@ -1062,6 +1095,13 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/customStorage/customStorage.xml><?xml version="1.0" encoding="utf-8"?>
+<customStorage xmlns="https://web.wps.cn/et/2018/main">
+  <book/>
+  <sheets/>
+</customStorage>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1322,10 +1362,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L47"/>
+  <dimension ref="A1:L57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="M46" sqref="M46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2079,6 +2119,155 @@
         <v>108</v>
       </c>
     </row>
+    <row r="48" spans="8:11">
+      <c r="H48" t="s">
+        <v>109</v>
+      </c>
+      <c r="I48" t="s">
+        <v>110</v>
+      </c>
+      <c r="J48">
+        <v>17</v>
+      </c>
+      <c r="K48" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="49" spans="8:11">
+      <c r="H49" t="s">
+        <v>111</v>
+      </c>
+      <c r="I49" t="s">
+        <v>112</v>
+      </c>
+      <c r="J49">
+        <v>18</v>
+      </c>
+      <c r="K49" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="50" spans="8:11">
+      <c r="H50" t="s">
+        <v>113</v>
+      </c>
+      <c r="I50" t="s">
+        <v>114</v>
+      </c>
+      <c r="J50">
+        <v>19</v>
+      </c>
+      <c r="K50" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="51" spans="8:11">
+      <c r="H51" t="s">
+        <v>115</v>
+      </c>
+      <c r="I51" t="s">
+        <v>116</v>
+      </c>
+      <c r="J51">
+        <v>20</v>
+      </c>
+      <c r="K51" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="52" spans="8:11">
+      <c r="H52" t="s">
+        <v>117</v>
+      </c>
+      <c r="I52" t="s">
+        <v>118</v>
+      </c>
+      <c r="J52">
+        <v>21</v>
+      </c>
+      <c r="K52" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="53" spans="2:11">
+      <c r="B53" t="s">
+        <v>119</v>
+      </c>
+      <c r="C53" t="b">
+        <v>0</v>
+      </c>
+      <c r="D53" t="b">
+        <v>1</v>
+      </c>
+      <c r="H53" t="s">
+        <v>109</v>
+      </c>
+      <c r="I53" t="s">
+        <v>110</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="54" spans="8:11">
+      <c r="H54" t="s">
+        <v>111</v>
+      </c>
+      <c r="I54" t="s">
+        <v>112</v>
+      </c>
+      <c r="J54">
+        <v>1</v>
+      </c>
+      <c r="K54" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="55" spans="8:11">
+      <c r="H55" t="s">
+        <v>113</v>
+      </c>
+      <c r="I55" t="s">
+        <v>114</v>
+      </c>
+      <c r="J55">
+        <v>2</v>
+      </c>
+      <c r="K55" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="56" spans="8:11">
+      <c r="H56" t="s">
+        <v>115</v>
+      </c>
+      <c r="I56" t="s">
+        <v>116</v>
+      </c>
+      <c r="J56">
+        <v>3</v>
+      </c>
+      <c r="K56" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="57" spans="8:11">
+      <c r="H57" t="s">
+        <v>117</v>
+      </c>
+      <c r="I57" t="s">
+        <v>118</v>
+      </c>
+      <c r="J57">
+        <v>4</v>
+      </c>
+      <c r="K57" t="s">
+        <v>118</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="H1:L1"/>

--- a/Config/Datas/__enums__.xlsx
+++ b/Config/Datas/__enums__.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="125">
   <si>
     <t>##var</t>
   </si>
@@ -387,6 +387,21 @@
   </si>
   <si>
     <t>card.TargetType</t>
+  </si>
+  <si>
+    <t>reward.RewardType</t>
+  </si>
+  <si>
+    <t>MONEY</t>
+  </si>
+  <si>
+    <t>金钱</t>
+  </si>
+  <si>
+    <t>CARD</t>
+  </si>
+  <si>
+    <t>卡牌</t>
   </si>
 </sst>
 </file>
@@ -1362,10 +1377,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L57"/>
+  <dimension ref="A1:L60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="M46" sqref="M46"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="H63" sqref="H63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2268,6 +2283,57 @@
         <v>118</v>
       </c>
     </row>
+    <row r="58" spans="2:11">
+      <c r="B58" t="s">
+        <v>120</v>
+      </c>
+      <c r="C58" t="b">
+        <v>0</v>
+      </c>
+      <c r="D58" t="b">
+        <v>1</v>
+      </c>
+      <c r="H58" t="s">
+        <v>41</v>
+      </c>
+      <c r="I58" t="s">
+        <v>42</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="59" spans="8:11">
+      <c r="H59" t="s">
+        <v>121</v>
+      </c>
+      <c r="I59" t="s">
+        <v>122</v>
+      </c>
+      <c r="J59">
+        <v>1</v>
+      </c>
+      <c r="K59" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="60" spans="8:11">
+      <c r="H60" t="s">
+        <v>123</v>
+      </c>
+      <c r="I60" t="s">
+        <v>124</v>
+      </c>
+      <c r="J60">
+        <v>2</v>
+      </c>
+      <c r="K60" t="s">
+        <v>124</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="H1:L1"/>

--- a/Config/Datas/__enums__.xlsx
+++ b/Config/Datas/__enums__.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="138">
   <si>
     <t>##var</t>
   </si>
@@ -164,10 +164,10 @@
     <t>pawn.Race</t>
   </si>
   <si>
-    <t>BEAST</t>
-  </si>
-  <si>
-    <t>兽族</t>
+    <t>FELIDAE</t>
+  </si>
+  <si>
+    <t>猫科</t>
   </si>
   <si>
     <t>RABMOU</t>
@@ -248,6 +248,15 @@
     <t>不死族</t>
   </si>
   <si>
+    <t>CANIDAE</t>
+  </si>
+  <si>
+    <t>犬科</t>
+  </si>
+  <si>
+    <t>无种族</t>
+  </si>
+  <si>
     <t>character.Role</t>
   </si>
   <si>
@@ -386,6 +395,30 @@
     <t>敌方单体</t>
   </si>
   <si>
+    <t>HEALUP</t>
+  </si>
+  <si>
+    <t>回复量提升</t>
+  </si>
+  <si>
+    <t>TAUNT</t>
+  </si>
+  <si>
+    <t>嘲讽</t>
+  </si>
+  <si>
+    <t>MAXHEALTH</t>
+  </si>
+  <si>
+    <t>最大生命值提升</t>
+  </si>
+  <si>
+    <t>NGUARD</t>
+  </si>
+  <si>
+    <t>无视防御</t>
+  </si>
+  <si>
     <t>card.TargetType</t>
   </si>
   <si>
@@ -402,6 +435,12 @@
   </si>
   <si>
     <t>卡牌</t>
+  </si>
+  <si>
+    <t>CHARACTER</t>
+  </si>
+  <si>
+    <t>角色</t>
   </si>
 </sst>
 </file>
@@ -1110,13 +1149,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/customStorage/customStorage.xml><?xml version="1.0" encoding="utf-8"?>
-<customStorage xmlns="https://web.wps.cn/et/2018/main">
-  <book/>
-  <sheets/>
-</customStorage>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1377,10 +1409,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L60"/>
+  <dimension ref="A1:L67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="H63" sqref="H63"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1794,145 +1826,145 @@
         <v>72</v>
       </c>
     </row>
-    <row r="25" spans="2:11">
-      <c r="B25" t="s">
+    <row r="25" spans="8:11">
+      <c r="H25" t="s">
         <v>73</v>
       </c>
-      <c r="C25" t="b">
-        <v>0</v>
-      </c>
-      <c r="D25" t="b">
-        <v>1</v>
-      </c>
-      <c r="H25" t="s">
+      <c r="I25" t="s">
         <v>74</v>
       </c>
-      <c r="I25" t="s">
-        <v>75</v>
-      </c>
       <c r="J25">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="K25" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26" spans="8:11">
       <c r="H26" t="s">
+        <v>41</v>
+      </c>
+      <c r="I26" t="s">
+        <v>75</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11">
+      <c r="B27" t="s">
+        <v>76</v>
+      </c>
+      <c r="C27" t="b">
+        <v>0</v>
+      </c>
+      <c r="D27" t="b">
+        <v>1</v>
+      </c>
+      <c r="H27" t="s">
         <v>77</v>
       </c>
-      <c r="I26" t="s">
+      <c r="I27" t="s">
         <v>78</v>
       </c>
-      <c r="J26">
-        <v>1</v>
-      </c>
-      <c r="K26" t="s">
+      <c r="J27">
+        <v>5</v>
+      </c>
+      <c r="K27" t="s">
         <v>79</v>
-      </c>
-    </row>
-    <row r="27" spans="8:11">
-      <c r="H27" t="s">
-        <v>80</v>
-      </c>
-      <c r="I27" t="s">
-        <v>81</v>
-      </c>
-      <c r="J27">
-        <v>2</v>
-      </c>
-      <c r="K27" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="28" spans="8:11">
       <c r="H28" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="I28" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="J28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K28" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="29" spans="8:11">
       <c r="H29" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I29" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="J29">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K29" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="30" spans="8:11">
       <c r="H30" t="s">
+        <v>86</v>
+      </c>
+      <c r="I30" t="s">
+        <v>87</v>
+      </c>
+      <c r="J30">
+        <v>3</v>
+      </c>
+      <c r="K30" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="31" spans="8:11">
+      <c r="H31" t="s">
         <v>89</v>
       </c>
-      <c r="I30" t="s">
+      <c r="I31" t="s">
         <v>90</v>
       </c>
-      <c r="J30">
-        <v>5</v>
-      </c>
-      <c r="K30" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="31" spans="2:11">
-      <c r="B31" t="s">
+      <c r="J31">
+        <v>4</v>
+      </c>
+      <c r="K31" t="s">
         <v>91</v>
-      </c>
-      <c r="C31" t="b">
-        <v>0</v>
-      </c>
-      <c r="D31" t="b">
-        <v>1</v>
-      </c>
-      <c r="H31" t="s">
-        <v>92</v>
-      </c>
-      <c r="I31" t="s">
-        <v>93</v>
-      </c>
-      <c r="J31">
-        <v>0</v>
-      </c>
-      <c r="K31" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="32" spans="8:11">
       <c r="H32" t="s">
+        <v>92</v>
+      </c>
+      <c r="I32" t="s">
+        <v>93</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11">
+      <c r="B33" t="s">
         <v>94</v>
       </c>
-      <c r="I32" t="s">
+      <c r="C33" t="b">
+        <v>0</v>
+      </c>
+      <c r="D33" t="b">
+        <v>1</v>
+      </c>
+      <c r="H33" t="s">
         <v>95</v>
-      </c>
-      <c r="J32">
-        <v>1</v>
-      </c>
-      <c r="K32" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="33" spans="8:11">
-      <c r="H33" t="s">
-        <v>74</v>
       </c>
       <c r="I33" t="s">
         <v>96</v>
       </c>
       <c r="J33">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K33" t="s">
         <v>96</v>
@@ -1946,7 +1978,7 @@
         <v>98</v>
       </c>
       <c r="J34">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K34" t="s">
         <v>98</v>
@@ -1954,384 +1986,482 @@
     </row>
     <row r="35" spans="8:11">
       <c r="H35" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="I35" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="J35">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K35" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
     </row>
     <row r="36" spans="8:11">
       <c r="H36" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I36" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="J36">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K36" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="37" spans="8:11">
       <c r="H37" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="I37" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="J37">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K37" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
     </row>
     <row r="38" spans="8:11">
       <c r="H38" t="s">
-        <v>20</v>
+        <v>102</v>
       </c>
       <c r="I38" t="s">
-        <v>21</v>
+        <v>103</v>
       </c>
       <c r="J38">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K38" t="s">
-        <v>21</v>
+        <v>103</v>
       </c>
     </row>
     <row r="39" spans="8:11">
       <c r="H39" t="s">
-        <v>23</v>
+        <v>104</v>
       </c>
       <c r="I39" t="s">
-        <v>24</v>
+        <v>105</v>
       </c>
       <c r="J39">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K39" t="s">
-        <v>24</v>
+        <v>105</v>
       </c>
     </row>
     <row r="40" spans="8:11">
       <c r="H40" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="I40" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="J40">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="K40" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" spans="8:11">
       <c r="H41" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="I41" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="J41">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K41" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="42" spans="8:11">
       <c r="H42" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="I42" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="J42">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K42" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="43" spans="8:11">
       <c r="H43" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="I43" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="J43">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K43" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="44" spans="8:11">
       <c r="H44" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="I44" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="J44">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K44" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="45" spans="8:11">
       <c r="H45" t="s">
-        <v>103</v>
+        <v>35</v>
       </c>
       <c r="I45" t="s">
-        <v>104</v>
+        <v>36</v>
       </c>
       <c r="J45">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K45" t="s">
-        <v>104</v>
+        <v>36</v>
       </c>
     </row>
     <row r="46" spans="8:11">
       <c r="H46" t="s">
-        <v>105</v>
+        <v>38</v>
       </c>
       <c r="I46" t="s">
-        <v>106</v>
+        <v>39</v>
       </c>
       <c r="J46">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K46" t="s">
-        <v>106</v>
+        <v>39</v>
       </c>
     </row>
     <row r="47" spans="8:11">
       <c r="H47" t="s">
+        <v>106</v>
+      </c>
+      <c r="I47" t="s">
         <v>107</v>
       </c>
-      <c r="I47" t="s">
-        <v>108</v>
-      </c>
       <c r="J47">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K47" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="48" spans="8:11">
       <c r="H48" t="s">
+        <v>108</v>
+      </c>
+      <c r="I48" t="s">
         <v>109</v>
       </c>
-      <c r="I48" t="s">
-        <v>110</v>
-      </c>
       <c r="J48">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="49" spans="8:11">
       <c r="H49" t="s">
+        <v>110</v>
+      </c>
+      <c r="I49" t="s">
         <v>111</v>
       </c>
-      <c r="I49" t="s">
-        <v>112</v>
-      </c>
       <c r="J49">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K49" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="50" spans="8:11">
       <c r="H50" t="s">
+        <v>112</v>
+      </c>
+      <c r="I50" t="s">
         <v>113</v>
       </c>
-      <c r="I50" t="s">
-        <v>114</v>
-      </c>
       <c r="J50">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K50" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="51" spans="8:11">
       <c r="H51" t="s">
+        <v>114</v>
+      </c>
+      <c r="I51" t="s">
         <v>115</v>
       </c>
-      <c r="I51" t="s">
-        <v>116</v>
-      </c>
       <c r="J51">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K51" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="52" spans="8:11">
       <c r="H52" t="s">
+        <v>116</v>
+      </c>
+      <c r="I52" t="s">
         <v>117</v>
       </c>
-      <c r="I52" t="s">
+      <c r="J52">
+        <v>19</v>
+      </c>
+      <c r="K52" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="53" spans="8:11">
+      <c r="H53" t="s">
         <v>118</v>
       </c>
-      <c r="J52">
-        <v>21</v>
-      </c>
-      <c r="K52" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="53" spans="2:11">
-      <c r="B53" t="s">
+      <c r="I53" t="s">
         <v>119</v>
       </c>
-      <c r="C53" t="b">
-        <v>0</v>
-      </c>
-      <c r="D53" t="b">
-        <v>1</v>
-      </c>
-      <c r="H53" t="s">
-        <v>109</v>
-      </c>
-      <c r="I53" t="s">
-        <v>110</v>
-      </c>
       <c r="J53">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="K53" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
     </row>
     <row r="54" spans="8:11">
       <c r="H54" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="I54" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="J54">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="K54" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
     </row>
     <row r="55" spans="8:11">
       <c r="H55" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="I55" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="J55">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="K55" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
     </row>
     <row r="56" spans="8:11">
       <c r="H56" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="I56" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="J56">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="K56" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
     </row>
     <row r="57" spans="8:11">
       <c r="H57" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="I57" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="J57">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="K57" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="58" spans="2:11">
-      <c r="B58" t="s">
-        <v>120</v>
-      </c>
-      <c r="C58" t="b">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="58" spans="8:11">
+      <c r="H58" t="s">
+        <v>128</v>
+      </c>
+      <c r="I58" t="s">
+        <v>129</v>
+      </c>
+      <c r="J58">
+        <v>25</v>
+      </c>
+      <c r="K58" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="59" spans="2:11">
+      <c r="B59" t="s">
+        <v>130</v>
+      </c>
+      <c r="C59" t="b">
         <v>0</v>
       </c>
-      <c r="D58" t="b">
+      <c r="D59" t="b">
         <v>1</v>
       </c>
-      <c r="H58" t="s">
-        <v>41</v>
-      </c>
-      <c r="I58" t="s">
-        <v>42</v>
-      </c>
-      <c r="J58">
+      <c r="H59" t="s">
+        <v>112</v>
+      </c>
+      <c r="I59" t="s">
+        <v>113</v>
+      </c>
+      <c r="J59">
         <v>0</v>
       </c>
-      <c r="K58" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="59" spans="8:11">
-      <c r="H59" t="s">
-        <v>121</v>
-      </c>
-      <c r="I59" t="s">
-        <v>122</v>
-      </c>
-      <c r="J59">
-        <v>1</v>
-      </c>
       <c r="K59" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
     </row>
     <row r="60" spans="8:11">
       <c r="H60" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="I60" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="J60">
+        <v>1</v>
+      </c>
+      <c r="K60" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="61" spans="8:11">
+      <c r="H61" t="s">
+        <v>116</v>
+      </c>
+      <c r="I61" t="s">
+        <v>117</v>
+      </c>
+      <c r="J61">
         <v>2</v>
       </c>
-      <c r="K60" t="s">
-        <v>124</v>
+      <c r="K61" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="62" spans="8:11">
+      <c r="H62" t="s">
+        <v>118</v>
+      </c>
+      <c r="I62" t="s">
+        <v>119</v>
+      </c>
+      <c r="J62">
+        <v>3</v>
+      </c>
+      <c r="K62" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="63" spans="8:11">
+      <c r="H63" t="s">
+        <v>120</v>
+      </c>
+      <c r="I63" t="s">
+        <v>121</v>
+      </c>
+      <c r="J63">
+        <v>4</v>
+      </c>
+      <c r="K63" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="64" spans="2:11">
+      <c r="B64" t="s">
+        <v>131</v>
+      </c>
+      <c r="C64" t="b">
+        <v>0</v>
+      </c>
+      <c r="D64" t="b">
+        <v>1</v>
+      </c>
+      <c r="H64" t="s">
+        <v>41</v>
+      </c>
+      <c r="I64" t="s">
+        <v>42</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="65" spans="8:11">
+      <c r="H65" t="s">
+        <v>132</v>
+      </c>
+      <c r="I65" t="s">
+        <v>133</v>
+      </c>
+      <c r="J65">
+        <v>1</v>
+      </c>
+      <c r="K65" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="66" spans="8:11">
+      <c r="H66" t="s">
+        <v>134</v>
+      </c>
+      <c r="I66" t="s">
+        <v>135</v>
+      </c>
+      <c r="J66">
+        <v>2</v>
+      </c>
+      <c r="K66" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="67" spans="8:11">
+      <c r="H67" t="s">
+        <v>136</v>
+      </c>
+      <c r="I67" t="s">
+        <v>137</v>
+      </c>
+      <c r="J67">
+        <v>3</v>
+      </c>
+      <c r="K67" t="s">
+        <v>137</v>
       </c>
     </row>
   </sheetData>
